--- a/prac-6/task1/отчет/results.xlsx
+++ b/prac-6/task1/отчет/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gleb/Projects/prac-CS-MSU/prac-6/task1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gleb/Projects/prac-CS-MSU/prac-6/task1/отчет/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FD68A8-8303-9F40-9BFC-23B75DE37FD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113FFC2F-4D99-7B4A-A24C-F14C1A31BC9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8B6A0AB1-831D-BB4B-9F8C-D95D3F002CB0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{8B6A0AB1-831D-BB4B-9F8C-D95D3F002CB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="127">
   <si>
     <t>T1</t>
   </si>
@@ -391,6 +391,21 @@
   </si>
   <si>
     <t>T2 без omp</t>
+  </si>
+  <si>
+    <t>точность</t>
+  </si>
+  <si>
+    <t>невязка</t>
+  </si>
+  <si>
+    <t>т2</t>
+  </si>
+  <si>
+    <t>т1</t>
+  </si>
+  <si>
+    <t>невяза</t>
   </si>
 </sst>
 </file>
@@ -1773,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3A8566-52C2-EB45-9F38-905B7728B007}">
-  <dimension ref="B1:L32"/>
+  <dimension ref="B1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1785,8 +1800,8 @@
     <col min="3" max="6" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1803,7 +1818,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -1819,8 +1834,26 @@
       <c r="F3" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>300</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1836,8 +1869,26 @@
       <c r="F4" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <v>1000</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -1853,8 +1904,26 @@
       <c r="F5" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>3000</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <v>8</v>
       </c>
@@ -1870,8 +1939,26 @@
       <c r="F6" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>6000</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>16</v>
       </c>
@@ -1888,7 +1975,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>32</v>
       </c>
@@ -1904,9 +1991,21 @@
       <c r="F8" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>124</v>
+      </c>
+      <c r="S8" t="s">
+        <v>122</v>
+      </c>
+      <c r="U8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>1</v>
       </c>
@@ -1938,7 +2037,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>1</v>
       </c>
@@ -1970,7 +2069,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>2</v>
       </c>
@@ -2001,8 +2100,23 @@
       <c r="L12" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>4</v>
       </c>
@@ -2033,8 +2147,23 @@
       <c r="L13" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <v>8</v>
       </c>
@@ -2065,8 +2194,23 @@
       <c r="L14" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <v>16</v>
       </c>
@@ -2097,8 +2241,23 @@
       <c r="L15" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>32</v>
       </c>
@@ -2129,6 +2288,10 @@
       <c r="L16" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
     </row>
     <row r="17" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
